--- a/data/trans_dic/P34_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.387610478077312</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3480432942854679</v>
+        <v>0.3480432942854678</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.532777667778442</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4895380226309752</v>
+        <v>0.4885964311401981</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3685740995752757</v>
+        <v>0.3703378796473544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3391246889661715</v>
+        <v>0.343204252116491</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2736803832363121</v>
+        <v>0.2788800585447878</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4842392930741392</v>
+        <v>0.4831285418874213</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3837920866618655</v>
+        <v>0.3860634857572924</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3500213094799642</v>
+        <v>0.3448232965358985</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3753311963811194</v>
+        <v>0.3781217920359395</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5009368140142056</v>
+        <v>0.4984392049644959</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3858544681977245</v>
+        <v>0.3887895150218613</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.359807444054533</v>
+        <v>0.356417879975346</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3461674341388341</v>
+        <v>0.3413841267958697</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.577691942175127</v>
+        <v>0.5771610111253448</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4557875245157112</v>
+        <v>0.4624005244134584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4343026001653392</v>
+        <v>0.4422909451720948</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.422751067996762</v>
+        <v>0.4321784043845678</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5769392443509669</v>
+        <v>0.5772905279036523</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4799102274799701</v>
+        <v>0.4823117616252394</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4427778279140896</v>
+        <v>0.4464893195546314</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5220758599098195</v>
+        <v>0.5152186788534949</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.564564242537926</v>
+        <v>0.5667902453707065</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4528762806882948</v>
+        <v>0.4571821980462744</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4241543505498435</v>
+        <v>0.423125549848197</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.451518981634134</v>
+        <v>0.4471095124306849</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2694064913607336</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3031792987435288</v>
+        <v>0.3031792987435287</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2892723072898902</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3060592936517902</v>
+        <v>0.3051505644102271</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2351903607161667</v>
+        <v>0.2351886537098355</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2317655254965532</v>
+        <v>0.2325200363998373</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2470377956374387</v>
+        <v>0.2523138024683291</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.253881814096739</v>
+        <v>0.2541455425419629</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1938438039082531</v>
+        <v>0.1942722622331344</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1989713803186196</v>
+        <v>0.1988967231216576</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2653028218080082</v>
+        <v>0.2637325522393701</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2934867397522772</v>
+        <v>0.2914746467475263</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2249006610945375</v>
+        <v>0.2247170194847523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2272247950831018</v>
+        <v>0.2264239322122371</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2680641749229354</v>
+        <v>0.2725024816533398</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3776659566508113</v>
+        <v>0.3748658751942167</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3029656729214104</v>
+        <v>0.3026878414486754</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3025892858726291</v>
+        <v>0.3058041632510053</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3589329109902895</v>
+        <v>0.3626543853202322</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.326315303819921</v>
+        <v>0.3304635785907699</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2619714453037443</v>
+        <v>0.2670708645916757</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2676190568922869</v>
+        <v>0.2672224676745955</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.347927941232663</v>
+        <v>0.3496462604912196</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3420830612148704</v>
+        <v>0.343600320210833</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2759091216980107</v>
+        <v>0.2739943862335786</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2797658868579601</v>
+        <v>0.2775118735249787</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3397680470725793</v>
+        <v>0.338382670065894</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2282444601840556</v>
+        <v>0.2251978934622973</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2027584983785132</v>
+        <v>0.2037916819129648</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2370570256935862</v>
+        <v>0.2346542744189746</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2635173088975337</v>
+        <v>0.2609332408465885</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1584698179934098</v>
+        <v>0.1591819735706695</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1251363387768304</v>
+        <v>0.1303696661183339</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1600026176248351</v>
+        <v>0.1595895638255759</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2084676798838743</v>
+        <v>0.2070500548903531</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1990309322303037</v>
+        <v>0.2004031047792228</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1750468538527269</v>
+        <v>0.1746649600053434</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2078159888741337</v>
+        <v>0.205545393672393</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2430473551677712</v>
+        <v>0.2446583478713741</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.295586918160995</v>
+        <v>0.2971827754281952</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2774396466339898</v>
+        <v>0.2743747532370131</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3041877361606301</v>
+        <v>0.3030700084555972</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3408622076152203</v>
+        <v>0.3404454408193144</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2190948594857074</v>
+        <v>0.2237602423606007</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1797508413883738</v>
+        <v>0.182571740768376</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2206337205600121</v>
+        <v>0.2208908311064743</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2683721920325207</v>
+        <v>0.2638880749972109</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2460782932344498</v>
+        <v>0.246001191409668</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2198033392440766</v>
+        <v>0.2168192344831537</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2514114589678721</v>
+        <v>0.2535323850113811</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2933740280917368</v>
+        <v>0.2947729918583228</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2083101824376655</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2669687037358265</v>
+        <v>0.2669687037358266</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2398815775440472</v>
@@ -1105,7 +1105,7 @@
         <v>0.2632110466258397</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.299011961061466</v>
+        <v>0.2990119610614659</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.287224477686882</v>
+        <v>0.2855670761452242</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2250032421455539</v>
+        <v>0.2229830807703905</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2800985817012566</v>
+        <v>0.2831044539984194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2956749740331357</v>
+        <v>0.2959243806393764</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1226985343991588</v>
+        <v>0.1224208521461294</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1513381927488459</v>
+        <v>0.1478125271938833</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1767621308445484</v>
+        <v>0.1736304605029474</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2403099421155943</v>
+        <v>0.2402523371097176</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2139130584596698</v>
+        <v>0.2134298427790259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1956108164738387</v>
+        <v>0.1967189598648839</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2379789946122211</v>
+        <v>0.2371514890288211</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.277225673952599</v>
+        <v>0.2751367670332811</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3698149177350903</v>
+        <v>0.3745082032304262</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3003307416860339</v>
+        <v>0.3045095617365933</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3588539957386644</v>
+        <v>0.3585808152748804</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3684241157090253</v>
+        <v>0.36756711761423</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1882111444724751</v>
+        <v>0.1846072538395171</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2202637004651985</v>
+        <v>0.2148198221339976</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2414568130387089</v>
+        <v>0.2434555536631418</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2927297836037941</v>
+        <v>0.2919122242317986</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2685437493051628</v>
+        <v>0.2694931809159326</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2471807404975035</v>
+        <v>0.2489476250598608</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2901785154420493</v>
+        <v>0.2902237808931873</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3207865079274829</v>
+        <v>0.3208960486295601</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3316949283177495</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3140937611406755</v>
+        <v>0.3140937611406754</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2976154114820542</v>
+        <v>0.29562307454511</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2158570325962212</v>
+        <v>0.2183521033818949</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3326523508113355</v>
+        <v>0.3390807779464818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3174870882033445</v>
+        <v>0.3187118744163902</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1863516322177749</v>
+        <v>0.1842863690188173</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1920773386144818</v>
+        <v>0.1916960680094628</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2400981542051187</v>
+        <v>0.2409726115060298</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2439155356357726</v>
+        <v>0.2455331673649608</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2502306379635064</v>
+        <v>0.2534627489803215</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2155894648154866</v>
+        <v>0.2173594985245417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3000750147516594</v>
+        <v>0.3002105682540234</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2905884019450213</v>
+        <v>0.2927786892169463</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3898025064581844</v>
+        <v>0.3887319249933292</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3061808717893605</v>
+        <v>0.3037718223158759</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4313554231141482</v>
+        <v>0.4307075956548863</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3937982921802423</v>
+        <v>0.3920837419514086</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2659322756205857</v>
+        <v>0.2681683268039108</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.274632909148946</v>
+        <v>0.2760875937105898</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3267664813598104</v>
+        <v>0.3226999414318769</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3017628607589738</v>
+        <v>0.2987452169102502</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3146899737393275</v>
+        <v>0.3160821931738314</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2764362026729169</v>
+        <v>0.2754811708695839</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3614413341967975</v>
+        <v>0.3644073035389109</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3376126711411612</v>
+        <v>0.3379445210473436</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.4762501542932632</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3846071672517343</v>
+        <v>0.3846071672517344</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4505976381563183</v>
+        <v>0.4456250058402204</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3736057417448007</v>
+        <v>0.3749566351455744</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4804379017178171</v>
+        <v>0.4698851221183457</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3454595891569491</v>
+        <v>0.3466220129479294</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3358496904484731</v>
+        <v>0.3356402817551293</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3456899946063933</v>
+        <v>0.3385456051301628</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3792171137829153</v>
+        <v>0.3762469848254146</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3511344920981525</v>
+        <v>0.3487662783524272</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4057263942800539</v>
+        <v>0.4032603292898702</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.372573263896772</v>
+        <v>0.3722586192018282</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4395050588805369</v>
+        <v>0.4347576990700479</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3597910063710235</v>
+        <v>0.3576439546079324</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5649216837428108</v>
+        <v>0.5628201409677961</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4915473319029972</v>
+        <v>0.50787735678157</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5886336987440162</v>
+        <v>0.5807994888779577</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4301215778590934</v>
+        <v>0.4296363609153572</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4326099433363073</v>
+        <v>0.4373854333683088</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4480051462163109</v>
+        <v>0.4477931199233388</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4833153198087843</v>
+        <v>0.4818259600293218</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.416227815069747</v>
+        <v>0.4169661704494167</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4818286503925743</v>
+        <v>0.4805980639777716</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4511335999679339</v>
+        <v>0.4532891858863175</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.5155837276163793</v>
+        <v>0.5120003729663588</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4113629611321235</v>
+        <v>0.4114044267502108</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.6822865636938283</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5583481997997501</v>
+        <v>0.55834819979975</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.5914438775454065</v>
@@ -1501,7 +1501,7 @@
         <v>0.6538706087819761</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6394570326514151</v>
+        <v>0.6394570326514148</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.6201668381106075</v>
@@ -1513,7 +1513,7 @@
         <v>0.6649823259043943</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.6069472977552256</v>
+        <v>0.6069472977552254</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5992258174913515</v>
+        <v>0.5971222576612734</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5061386620865457</v>
+        <v>0.5024200738562162</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6308028268456439</v>
+        <v>0.6288158805964791</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5092149680392722</v>
+        <v>0.5136937045736037</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5370679026103969</v>
+        <v>0.5315678865404148</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6065378999220005</v>
+        <v>0.6072571983080677</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5899646041653906</v>
+        <v>0.5991867252773434</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6056579990237003</v>
+        <v>0.6056085728470626</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5744985563240783</v>
+        <v>0.5758442370070227</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5869749382591111</v>
+        <v>0.5885638292812045</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.6224369019483105</v>
+        <v>0.6221867858270681</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5771303605532065</v>
+        <v>0.581721422231513</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.724979101249562</v>
+        <v>0.7261411276781645</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6441386698101755</v>
+        <v>0.635626190423065</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7369375409465402</v>
+        <v>0.734300895083881</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6026702195402194</v>
+        <v>0.6049013766264544</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6498045019972702</v>
+        <v>0.6455696217351607</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7060216980115538</v>
+        <v>0.7100703178258113</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7052494895882062</v>
+        <v>0.7089370794518055</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6738344825678745</v>
+        <v>0.6695794635793467</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6584205992913829</v>
+        <v>0.6608650520984254</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6706145661006109</v>
+        <v>0.6698258980308389</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7010591890952105</v>
+        <v>0.7042887795911845</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6334570932423151</v>
+        <v>0.6353279978636064</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.3661746016955936</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.3548306601547617</v>
+        <v>0.3548306601547618</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.3125807779298274</v>
@@ -1637,7 +1637,7 @@
         <v>0.3136468105772449</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3448489100775312</v>
+        <v>0.3448489100775313</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.3495015724036676</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3693203380989286</v>
+        <v>0.3717388337818524</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3002672945178352</v>
+        <v>0.2988294681374903</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3490777234842819</v>
+        <v>0.3480690443253909</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3381419319122425</v>
+        <v>0.336841231192187</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2974546558524602</v>
+        <v>0.2973140839825996</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2781805060108101</v>
+        <v>0.2775779116784686</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2967928495807023</v>
+        <v>0.2985981326533309</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3299383697459097</v>
+        <v>0.3304517592286549</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3383829094224306</v>
+        <v>0.3364755464362655</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2927839713769637</v>
+        <v>0.2938800589553052</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3280409937916782</v>
+        <v>0.3279181109927571</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3389720938003011</v>
+        <v>0.339502133854407</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4046164673415439</v>
+        <v>0.4066347531794666</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3334530710047529</v>
+        <v>0.3334010025642102</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3825690033005749</v>
+        <v>0.3818921747083792</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3744234534685325</v>
+        <v>0.3740889906060939</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3283892909791853</v>
+        <v>0.3279646088152955</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3108101819283514</v>
+        <v>0.3088344503183942</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.329911820625828</v>
+        <v>0.3291933258380119</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3571596833465077</v>
+        <v>0.3588611141365993</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3606263779104635</v>
+        <v>0.3608071005435427</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3157109080424497</v>
+        <v>0.3154798960279724</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3510897375620266</v>
+        <v>0.3505141753951386</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3601177515336724</v>
+        <v>0.3615944727619541</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>240739</v>
+        <v>240276</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>166721</v>
+        <v>167519</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>141568</v>
+        <v>143271</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>108865</v>
+        <v>110933</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>223658</v>
+        <v>223145</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>162669</v>
+        <v>163631</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>138523</v>
+        <v>136466</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>134673</v>
+        <v>135675</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>477715</v>
+        <v>475333</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>338080</v>
+        <v>340652</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>292597</v>
+        <v>289841</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>261908</v>
+        <v>258289</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>284090</v>
+        <v>283829</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>206171</v>
+        <v>209162</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>181300</v>
+        <v>184634</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>168162</v>
+        <v>171912</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>266474</v>
+        <v>266636</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>203408</v>
+        <v>204426</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>175232</v>
+        <v>176700</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>187327</v>
+        <v>184867</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>538393</v>
+        <v>540516</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>396804</v>
+        <v>400577</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>344924</v>
+        <v>344088</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>341616</v>
+        <v>338280</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>222855</v>
+        <v>222193</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>159262</v>
+        <v>159261</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>135576</v>
+        <v>136017</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>116108</v>
+        <v>118587</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>157530</v>
+        <v>157694</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>117379</v>
+        <v>117638</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>111766</v>
+        <v>111724</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>132634</v>
+        <v>131849</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>395805</v>
+        <v>393091</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>288479</v>
+        <v>288244</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>260556</v>
+        <v>259638</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>260005</v>
+        <v>264310</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>274994</v>
+        <v>272956</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>205157</v>
+        <v>204969</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>177005</v>
+        <v>178886</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>168698</v>
+        <v>170447</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>202474</v>
+        <v>205048</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>158632</v>
+        <v>161720</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>150327</v>
+        <v>150104</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>173942</v>
+        <v>174801</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>461343</v>
+        <v>463389</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>353908</v>
+        <v>351452</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>320804</v>
+        <v>318220</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>329553</v>
+        <v>328209</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>144918</v>
+        <v>142984</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>137610</v>
+        <v>138311</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>158158</v>
+        <v>156555</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>162219</v>
+        <v>160628</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>108517</v>
+        <v>109005</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>88258</v>
+        <v>91949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>105506</v>
+        <v>105233</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>129089</v>
+        <v>128211</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>262663</v>
+        <v>264474</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>242262</v>
+        <v>241734</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>275683</v>
+        <v>272671</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>300119</v>
+        <v>302108</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>187676</v>
+        <v>188689</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>188295</v>
+        <v>186215</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>202946</v>
+        <v>202200</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>209832</v>
+        <v>209575</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>150032</v>
+        <v>153227</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>126778</v>
+        <v>128767</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>145486</v>
+        <v>145655</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>166183</v>
+        <v>163406</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>324751</v>
+        <v>324650</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>304205</v>
+        <v>300075</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>333515</v>
+        <v>336329</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>362263</v>
+        <v>363991</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>147012</v>
+        <v>146163</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>137628</v>
+        <v>136392</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>177865</v>
+        <v>179773</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>206495</v>
+        <v>206669</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>63147</v>
+        <v>63004</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>93093</v>
+        <v>90924</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>113802</v>
+        <v>111786</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>176179</v>
+        <v>176137</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>219579</v>
+        <v>219083</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>239976</v>
+        <v>241335</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>304332</v>
+        <v>303274</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>396854</v>
+        <v>393864</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>189284</v>
+        <v>191686</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>183703</v>
+        <v>186259</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>227875</v>
+        <v>227701</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>257302</v>
+        <v>256704</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>96863</v>
+        <v>95008</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>135491</v>
+        <v>132143</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>155453</v>
+        <v>156740</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>214610</v>
+        <v>214010</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>275656</v>
+        <v>276631</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>303242</v>
+        <v>305409</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>371086</v>
+        <v>371144</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>459212</v>
+        <v>459369</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>114362</v>
+        <v>113597</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>91910</v>
+        <v>92972</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>158261</v>
+        <v>161320</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>192442</v>
+        <v>193184</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>74920</v>
+        <v>74089</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>85420</v>
+        <v>85251</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>118527</v>
+        <v>118959</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>147476</v>
+        <v>148454</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>196755</v>
+        <v>199297</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>187673</v>
+        <v>189214</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>290898</v>
+        <v>291029</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>351833</v>
+        <v>354485</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>149786</v>
+        <v>149375</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>130369</v>
+        <v>129343</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>205220</v>
+        <v>204912</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>238697</v>
+        <v>237658</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>106914</v>
+        <v>107813</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>122134</v>
+        <v>122781</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>161312</v>
+        <v>159304</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>182452</v>
+        <v>180627</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>247439</v>
+        <v>248534</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>240640</v>
+        <v>239809</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>350387</v>
+        <v>353263</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>408768</v>
+        <v>409170</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>128025</v>
+        <v>126612</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>115328</v>
+        <v>115745</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>159706</v>
+        <v>156198</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>139895</v>
+        <v>140366</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>114574</v>
+        <v>114503</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>121044</v>
+        <v>118542</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>142861</v>
+        <v>141742</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>153182</v>
+        <v>152149</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>253688</v>
+        <v>252146</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>245466</v>
+        <v>245259</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>311673</v>
+        <v>308306</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>302658</v>
+        <v>300852</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>160507</v>
+        <v>159910</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>151735</v>
+        <v>156776</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>195672</v>
+        <v>193068</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>174179</v>
+        <v>173983</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>147584</v>
+        <v>149213</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>156870</v>
+        <v>156796</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>182078</v>
+        <v>181517</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>181579</v>
+        <v>181901</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>301273</v>
+        <v>300503</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>297225</v>
+        <v>298645</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>365624</v>
+        <v>363083</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>346040</v>
+        <v>346075</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>124708</v>
+        <v>124271</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>125875</v>
+        <v>124950</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>161053</v>
+        <v>160545</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>157261</v>
+        <v>158645</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>176271</v>
+        <v>174465</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>235265</v>
+        <v>235544</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>234569</v>
+        <v>238236</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>279617</v>
+        <v>279594</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>308119</v>
+        <v>308840</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>373655</v>
+        <v>374667</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>406397</v>
+        <v>406234</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>444682</v>
+        <v>448219</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>150880</v>
+        <v>151122</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>160195</v>
+        <v>158078</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>188150</v>
+        <v>187477</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>186123</v>
+        <v>186812</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>213272</v>
+        <v>211882</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>273852</v>
+        <v>275423</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>280406</v>
+        <v>281873</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>311092</v>
+        <v>309127</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>353128</v>
+        <v>354439</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>426898</v>
+        <v>426396</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>457731</v>
+        <v>459839</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>488082</v>
+        <v>489523</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1197769</v>
+        <v>1205613</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1021821</v>
+        <v>1016928</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1175723</v>
+        <v>1172326</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1184066</v>
+        <v>1179511</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>997421</v>
+        <v>996949</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>982689</v>
+        <v>980561</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1047285</v>
+        <v>1053655</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1225276</v>
+        <v>1227183</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2232094</v>
+        <v>2219513</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2030632</v>
+        <v>2038234</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2262419</v>
+        <v>2261572</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2445797</v>
+        <v>2449622</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1312240</v>
+        <v>1318786</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1134753</v>
+        <v>1134576</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1288525</v>
+        <v>1286245</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1311112</v>
+        <v>1309941</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1101150</v>
+        <v>1099726</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1097956</v>
+        <v>1090976</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1164151</v>
+        <v>1161616</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1326367</v>
+        <v>1332685</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>2378820</v>
+        <v>2380012</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2189644</v>
+        <v>2188042</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2421381</v>
+        <v>2417411</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2598370</v>
+        <v>2609025</v>
       </c>
     </row>
     <row r="36">
